--- a/src/Chapter-4使用python批量处理工作簿表/公司/北京.xlsx
+++ b/src/Chapter-4使用python批量处理工作簿表/公司/北京.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-4使用python批量处理工作簿表\公司\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE09B5-F0D7-4029-9CD7-B71465638AEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F97CA2D-7588-44DD-8FDE-F999AA10774A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{FB372C9D-A3E7-4A94-ADAC-F85D5E6EFFF9}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{FB372C9D-A3E7-4A94-ADAC-F85D5E6EFFF9}"/>
   </bookViews>
   <sheets>
     <sheet name="产品分类表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>AAU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>TDD_PAD</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>为</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49B53A6-17D3-4DA7-AE5C-89CEB6352168}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,6 +509,132 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
